--- a/BOOMバウンド.xlsx
+++ b/BOOMバウンド.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ゲームプログラミング　チーム制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549287F2-608C-44E9-9B2B-31F1FCA23A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5D45C9-C70B-44D5-9B28-A7AACC134B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
   <si>
     <t>BOOMバウンド仕様書</t>
     <rPh sb="8" eb="11">
@@ -1466,29 +1464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・プレイヤーの移動速度は、【３f】とします</t>
-    <rPh sb="7" eb="11">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２f】とします</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このシートでは、操作の仕様について記載します。</t>
     <rPh sb="8" eb="10">
       <t>ソウサ</t>
@@ -1580,35 +1555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この時、撃たれた直後の速度は、初めから【７f】とします</t>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・弾の速度は、【７f】とします</t>
-    <rPh sb="1" eb="2">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【移動速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="6">
       <t>イドウソクド</t>
@@ -2371,13 +2317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボは、プレイヤーの速度を【＋２f】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ソクド</t>
@@ -2447,22 +2386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボを使用した時、即座に速度を【＋２f】させます</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクザ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>別案</t>
     <rPh sb="0" eb="2">
       <t>ベツアン</t>
@@ -2470,13 +2393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボは、プレイヤーの速度を【＋４f　～　＋２f】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターボの消費は、使用した、または、使用しているタイミングによって、『速度』『ターボ消費量』が変動します</t>
     <rPh sb="4" eb="6">
       <t>ショウヒ</t>
@@ -2499,51 +2415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４f】されます</t>
-    <rPh sb="4" eb="6">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3ｆ】に下がります</t>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２f】となります</t>
-    <rPh sb="2" eb="4">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【秒数】【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ビョウスウ</t>
@@ -2873,13 +2744,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの移動速度が【＋１f】</t>
-    <rPh sb="6" eb="10">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この時、【４秒】間は、その時の最大の速度です</t>
     <rPh sb="2" eb="3">
       <t>トキ</t>
@@ -2902,28 +2766,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発射されて３秒間たったら【0.7秒】間かけて減速します</t>
-    <rPh sb="0" eb="2">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゲンソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.7秒間たったあと、その場に【0.3秒】間静止し、そのあとに当たり判定と一緒に消滅します</t>
     <rPh sb="3" eb="4">
       <t>ビョウ</t>
@@ -2958,16 +2800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾の速度が【＋２f】</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターボ残量が【50】回復</t>
     <rPh sb="3" eb="5">
       <t>ザンリョウ</t>
@@ -2993,6 +2825,185 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑この仕組みは『二次関数』を使うとわかりやすい</t>
+    <rPh sb="3" eb="5">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ニジカンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボは、プレイヤーの速度を【＋２m/s】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボを使用した時、即座に速度を【＋２m/s】させます</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボは、プレイヤーの速度を【＋４m/s　～　＋２m/s】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４m/s】されます</t>
+    <rPh sb="4" eb="6">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3m/s】に下がります</t>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２m/s】となります</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動速度が【＋１m/s】</t>
+    <rPh sb="6" eb="10">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の速度が【＋２m/s】</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射されて4秒間たったら【0.7秒】間かけて減速します</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・弾の速度は、【７m/s】とします</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時、撃たれた直後の速度は、初めから【７m/s】とします</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの移動速度は、【３m/s】とします</t>
+    <rPh sb="7" eb="11">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２m/s】とします</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3004,7 +3015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3069,6 +3080,15 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3138,7 +3158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3185,6 +3205,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20579,35 +20602,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
@@ -20621,7 +20644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G10" s="7">
         <v>1</v>
       </c>
@@ -20635,7 +20658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G11" s="7">
         <v>2</v>
       </c>
@@ -20649,7 +20672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G12" s="7">
         <v>3</v>
       </c>
@@ -20663,7 +20686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G13" s="7">
         <v>4</v>
       </c>
@@ -20677,7 +20700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G14" s="7">
         <v>5</v>
       </c>
@@ -20691,7 +20714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G15" s="7">
         <v>6</v>
       </c>
@@ -20705,7 +20728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G16" s="7">
         <v>7</v>
       </c>
@@ -20719,7 +20742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G17" s="7">
         <v>8</v>
       </c>
@@ -20733,7 +20756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G18" s="7">
         <v>9</v>
       </c>
@@ -20747,13 +20770,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
@@ -20770,138 +20793,138 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>19</v>
       </c>
@@ -20918,59 +20941,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -20981,7 +21004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -20995,7 +21018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -21006,15 +21029,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="6" t="s">
         <v>19</v>
       </c>
@@ -21032,122 +21055,122 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="6:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="6:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G34" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36"/>
       <c r="C36" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F41" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57"/>
       <c r="C57" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63"/>
       <c r="C63" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="6" t="s">
         <v>19</v>
       </c>
@@ -21163,56 +21186,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7C2F9-8E5F-480D-A281-69F73CB6AA7B}">
   <dimension ref="A1:AM120"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE105" sqref="AE105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="4.125" customWidth="1"/>
+    <col min="9" max="9" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -21231,7 +21254,7 @@
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
     </row>
-    <row r="32" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="7:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G32" s="12"/>
       <c r="H32" s="9" t="s">
         <v>73</v>
@@ -21256,7 +21279,7 @@
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
     </row>
-    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
@@ -21281,7 +21304,7 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
     </row>
-    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12" t="s">
@@ -21302,7 +21325,7 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
     </row>
-    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
@@ -21323,7 +21346,7 @@
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
     </row>
-    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
@@ -21344,7 +21367,7 @@
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
     </row>
-    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12" t="s">
@@ -21365,36 +21388,36 @@
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
     </row>
-    <row r="39" spans="1:39" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:39" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39"/>
       <c r="C39" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
         <v>78</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
         <v>79</v>
       </c>
@@ -21402,15 +21425,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="9"/>
     </row>
-    <row r="57" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D57" t="s">
         <v>81</v>
       </c>
@@ -21421,139 +21444,139 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59"/>
       <c r="C59" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D61" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D62" t="s">
         <v>84</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66"/>
       <c r="C66" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D68" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D70" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
         <v>89</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74"/>
       <c r="C74" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
         <v>90</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82"/>
       <c r="C82" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D86" t="s">
         <v>95</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89"/>
       <c r="C89" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D92" t="s">
         <v>101</v>
       </c>
@@ -21561,27 +21584,27 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G97" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G100" t="s">
         <v>111</v>
       </c>
@@ -21589,7 +21612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G101" t="s">
         <v>112</v>
       </c>
@@ -21597,7 +21620,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D103" t="s">
         <v>103</v>
       </c>
@@ -21605,7 +21628,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E104" t="s">
         <v>106</v>
       </c>
@@ -21613,23 +21636,23 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:17" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106"/>
       <c r="C106" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D108" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D109" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="6" t="s">
         <v>19</v>
       </c>
@@ -21647,74 +21670,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>128</v>
       </c>
@@ -21725,38 +21748,38 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
@@ -21774,29 +21797,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
@@ -21814,125 +21837,125 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>140</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E32" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="6" t="s">
         <v>19</v>
       </c>
@@ -21952,167 +21975,167 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="9" t="s">
+    </row>
+    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
+      <c r="X30" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F30" t="s">
+    <row r="33" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
         <v>164</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H33" t="s">
-        <v>168</v>
-      </c>
-      <c r="T33" s="3" t="s">
+    <row r="39" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H39" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H39" t="s">
-        <v>173</v>
-      </c>
       <c r="O39" t="s">
+        <v>170</v>
+      </c>
+      <c r="V39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
         <v>174</v>
       </c>
-      <c r="V39" t="s">
+      <c r="U42" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W40" t="s">
+    <row r="44" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E42" t="s">
-        <v>178</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:23" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="6" t="s">
         <v>19</v>
       </c>
@@ -22126,76 +22149,76 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>111</v>
       </c>
@@ -22203,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
         <v>112</v>
       </c>
@@ -22211,7 +22234,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>103</v>
       </c>
@@ -22219,54 +22242,54 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31"/>
       <c r="C31" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G39" t="s">
         <v>111</v>
       </c>
@@ -22274,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G40" t="s">
         <v>112</v>
       </c>
@@ -22282,7 +22305,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
         <v>103</v>
       </c>
@@ -22290,55 +22313,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="H46" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G48" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
-        <v>192</v>
-      </c>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="52" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D49" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>187</v>
+      </c>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="54" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOOMバウンド.xlsx
+++ b/BOOMバウンド.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ゲームプログラミング　チーム制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549287F2-608C-44E9-9B2B-31F1FCA23A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830DAE7-0875-4B5E-A4D6-3E3B37CFFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
   <si>
     <t>BOOMバウンド仕様書</t>
     <rPh sb="8" eb="11">
@@ -1466,29 +1464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・プレイヤーの移動速度は、【３f】とします</t>
-    <rPh sb="7" eb="11">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２f】とします</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>このシートでは、操作の仕様について記載します。</t>
     <rPh sb="8" eb="10">
       <t>ソウサ</t>
@@ -1580,35 +1555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この時、撃たれた直後の速度は、初めから【７f】とします</t>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・弾の速度は、【７f】とします</t>
-    <rPh sb="1" eb="2">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【移動速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="6">
       <t>イドウソクド</t>
@@ -2371,13 +2317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボは、プレイヤーの速度を【＋２f】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ソクド</t>
@@ -2447,22 +2386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボを使用した時、即座に速度を【＋２f】させます</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクザ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>別案</t>
     <rPh sb="0" eb="2">
       <t>ベツアン</t>
@@ -2470,13 +2393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ターボは、プレイヤーの速度を【＋４f　～　＋２f】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターボの消費は、使用した、または、使用しているタイミングによって、『速度』『ターボ消費量』が変動します</t>
     <rPh sb="4" eb="6">
       <t>ショウヒ</t>
@@ -2499,51 +2415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４f】されます</t>
-    <rPh sb="4" eb="6">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3ｆ】に下がります</t>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２f】となります</t>
-    <rPh sb="2" eb="4">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※【秒数】【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ビョウスウ</t>
@@ -2873,13 +2744,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの移動速度が【＋１f】</t>
-    <rPh sb="6" eb="10">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この時、【４秒】間は、その時の最大の速度です</t>
     <rPh sb="2" eb="3">
       <t>トキ</t>
@@ -2902,28 +2766,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>発射されて３秒間たったら【0.7秒】間かけて減速します</t>
-    <rPh sb="0" eb="2">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゲンソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0.7秒間たったあと、その場に【0.3秒】間静止し、そのあとに当たり判定と一緒に消滅します</t>
     <rPh sb="3" eb="4">
       <t>ビョウ</t>
@@ -2958,16 +2800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾の速度が【＋２f】</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターボ残量が【50】回復</t>
     <rPh sb="3" eb="5">
       <t>ザンリョウ</t>
@@ -2993,6 +2825,185 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑この仕組みは『二次関数』を使うとわかりやすい</t>
+    <rPh sb="3" eb="5">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ニジカンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボは、プレイヤーの速度を【＋２m/s】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボを使用した時、即座に速度を【＋２m/s】させます</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ターボは、プレイヤーの速度を【＋４m/s　～　＋２m/s】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４m/s】されます</t>
+    <rPh sb="4" eb="6">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3m/s】に下がります</t>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２m/s】となります</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動速度が【＋１m/s】</t>
+    <rPh sb="6" eb="10">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の速度が【＋２m/s】</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射されて4秒間たったら【0.7秒】間かけて減速します</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・弾の速度は、【７m/s】とします</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時、撃たれた直後の速度は、初めから【７m/s】とします</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーの移動速度は、【３m/s】とします</t>
+    <rPh sb="7" eb="11">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２m/s】とします</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3004,7 +3015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3069,6 +3080,15 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3138,7 +3158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3187,6 +3207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -20253,6 +20276,227 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DF66EF-9AB7-4736-AC4B-C72CAFA8813A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2190750" y="14782800"/>
+          <a:ext cx="9525" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円弧 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4908B6CA-DC14-4263-B454-EDA01E1ADA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3467100" y="13354050"/>
+          <a:ext cx="4381500" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8226091-2586-46A1-8B12-CC3D38224C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="16202025"/>
+          <a:ext cx="1571625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46310BC3-D98E-4E9C-8121-FA366DF002D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="16506825"/>
+          <a:ext cx="1447800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20577,7 +20821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92698E37-5733-4F20-8846-ABFF099610B6}">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -20784,7 +21028,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20794,22 +21038,22 @@
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20819,25 +21063,25 @@
     </row>
     <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>80</v>
@@ -20845,22 +21089,22 @@
     </row>
     <row r="21" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>80</v>
@@ -20868,37 +21112,37 @@
     </row>
     <row r="25" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21163,7 +21407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7C2F9-8E5F-480D-A281-69F73CB6AA7B}">
   <dimension ref="A1:AM120"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE105" sqref="AE105"/>
     </sheetView>
   </sheetViews>
@@ -21381,7 +21625,7 @@
         <v>78</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21437,7 +21681,7 @@
         <v>84</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21476,7 +21720,7 @@
         <v>89</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21510,7 +21754,7 @@
         <v>90</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21534,7 +21778,7 @@
         <v>95</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21732,20 +21976,20 @@
     </row>
     <row r="32" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>129</v>
@@ -21753,7 +21997,7 @@
     </row>
     <row r="37" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21788,7 +22032,7 @@
     </row>
     <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21828,7 +22072,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21838,27 +22082,27 @@
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21868,45 +22112,45 @@
     </row>
     <row r="17" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>80</v>
@@ -21914,22 +22158,22 @@
     </row>
     <row r="29" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="3:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21966,7 +22210,7 @@
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21976,27 +22220,27 @@
     </row>
     <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22006,110 +22250,110 @@
     </row>
     <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O39" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="V39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W40" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:23" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22126,9 +22370,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -22144,7 +22388,7 @@
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22154,17 +22398,17 @@
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22174,20 +22418,20 @@
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22221,44 +22465,44 @@
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="C31" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22292,53 +22536,60 @@
     </row>
     <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G48" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
-        <v>192</v>
-      </c>
-      <c r="X50" s="3"/>
-    </row>
-    <row r="52" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="60" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BOOMバウンド.xlsx
+++ b/BOOMバウンド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830DAE7-0875-4B5E-A4D6-3E3B37CFFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F6EBD-1F13-424D-BB1B-67C27EFD5A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
@@ -22372,7 +22372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AN44" sqref="AN44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/BOOMバウンド.xlsx
+++ b/BOOMバウンド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F6EBD-1F13-424D-BB1B-67C27EFD5A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830DAE7-0875-4B5E-A4D6-3E3B37CFFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
@@ -22372,9 +22372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AN44" sqref="AN44"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/BOOMバウンド.xlsx
+++ b/BOOMバウンド.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲームプログラミング　チーム制作\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ゲームプログラミング　チーム制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830DAE7-0875-4B5E-A4D6-3E3B37CFFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549287F2-608C-44E9-9B2B-31F1FCA23A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7D7B4EA9-C74D-437B-8453-40403A449E96}"/>
   </bookViews>
   <sheets>
     <sheet name="タスクリスト" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
   <si>
     <t>BOOMバウンド仕様書</t>
     <rPh sb="8" eb="11">
@@ -1464,6 +1466,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・プレイヤーの移動速度は、【３f】とします</t>
+    <rPh sb="7" eb="11">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２f】とします</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>このシートでは、操作の仕様について記載します。</t>
     <rPh sb="8" eb="10">
       <t>ソウサ</t>
@@ -1555,6 +1580,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>この時、撃たれた直後の速度は、初めから【７f】とします</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・弾の速度は、【７f】とします</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※【移動速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="6">
       <t>イドウソクド</t>
@@ -2317,6 +2371,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・ターボは、プレイヤーの速度を【＋２f】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ソクド</t>
@@ -2386,6 +2447,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・ターボを使用した時、即座に速度を【＋２f】させます</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>別案</t>
     <rPh sb="0" eb="2">
       <t>ベツアン</t>
@@ -2393,6 +2470,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>・ターボは、プレイヤーの速度を【＋４f　～　＋２f】させます</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ターボの消費は、使用した、または、使用しているタイミングによって、『速度』『ターボ消費量』が変動します</t>
     <rPh sb="4" eb="6">
       <t>ショウヒ</t>
@@ -2415,6 +2499,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４f】されます</t>
+    <rPh sb="4" eb="6">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3ｆ】に下がります</t>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２f】となります</t>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※【秒数】【速度】はあとから変えられるようにしてください</t>
     <rPh sb="2" eb="4">
       <t>ビョウスウ</t>
@@ -2744,6 +2873,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プレイヤーの移動速度が【＋１f】</t>
+    <rPh sb="6" eb="10">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>この時、【４秒】間は、その時の最大の速度です</t>
     <rPh sb="2" eb="3">
       <t>トキ</t>
@@ -2766,6 +2902,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>発射されて３秒間たったら【0.7秒】間かけて減速します</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>0.7秒間たったあと、その場に【0.3秒】間静止し、そのあとに当たり判定と一緒に消滅します</t>
     <rPh sb="3" eb="4">
       <t>ビョウ</t>
@@ -2800,6 +2958,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>弾の速度が【＋２f】</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ターボ残量が【50】回復</t>
     <rPh sb="3" eb="5">
       <t>ザンリョウ</t>
@@ -2825,185 +2993,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑この仕組みは『二次関数』を使うとわかりやすい</t>
-    <rPh sb="3" eb="5">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ニジカンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ターボは、プレイヤーの速度を【＋２m/s】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ターボを使用した時、即座に速度を【＋２m/s】させます</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクザ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ターボは、プレイヤーの速度を【＋４m/s　～　＋２m/s】させます</t>
-    <rPh sb="12" eb="14">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターボを発動した【0.１秒】間、プレイヤーの速度が【＋４m/s】されます</t>
-    <rPh sb="4" eb="6">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このあと、【0.2秒】間、プレイヤーの速度は【＋3m/s】に下がります</t>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ以降のターボの使用は、プレイヤーの速度は【＋２m/s】となります</t>
-    <rPh sb="2" eb="4">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの移動速度が【＋１m/s】</t>
-    <rPh sb="6" eb="10">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾の速度が【＋２m/s】</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発射されて4秒間たったら【0.7秒】間かけて減速します</t>
-    <rPh sb="0" eb="2">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゲンソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・弾の速度は、【７m/s】とします</t>
-    <rPh sb="1" eb="2">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この時、撃たれた直後の速度は、初めから【７m/s】とします</t>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーの移動速度は、【３m/s】とします</t>
-    <rPh sb="7" eb="11">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤーのターボを使用した時は、今の速度に【＋２m/s】とします</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3015,7 +3004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3080,15 +3069,6 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3158,7 +3138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3207,9 +3187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -20276,227 +20253,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DF66EF-9AB7-4736-AC4B-C72CAFA8813A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2190750" y="14782800"/>
-          <a:ext cx="9525" cy="1743075"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円弧 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4908B6CA-DC14-4263-B454-EDA01E1ADA45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3467100" y="13354050"/>
-          <a:ext cx="4381500" cy="2847975"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8226091-2586-46A1-8B12-CC3D38224C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657850" y="16202025"/>
-          <a:ext cx="1571625" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46310BC3-D98E-4E9C-8121-FA366DF002D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028825" y="16506825"/>
-          <a:ext cx="1447800" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20821,7 +20577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92698E37-5733-4F20-8846-ABFF099610B6}">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
@@ -21028,7 +20784,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21038,22 +20794,22 @@
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21063,25 +20819,25 @@
     </row>
     <row r="16" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>80</v>
@@ -21089,22 +20845,22 @@
     </row>
     <row r="21" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E23" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>80</v>
@@ -21112,37 +20868,37 @@
     </row>
     <row r="25" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E31" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="3:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21407,7 +21163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D7C2F9-8E5F-480D-A281-69F73CB6AA7B}">
   <dimension ref="A1:AM120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="AE105" sqref="AE105"/>
     </sheetView>
   </sheetViews>
@@ -21625,7 +21381,7 @@
         <v>78</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21681,7 +21437,7 @@
         <v>84</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21720,7 +21476,7 @@
         <v>89</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:26" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21754,7 +21510,7 @@
         <v>90</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:27" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21778,7 +21534,7 @@
         <v>95</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21976,20 +21732,20 @@
     </row>
     <row r="32" spans="3:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>129</v>
@@ -21997,7 +21753,7 @@
     </row>
     <row r="37" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:20" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22032,7 +21788,7 @@
     </row>
     <row r="5" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22072,7 +21828,7 @@
     </row>
     <row r="5" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22082,27 +21838,27 @@
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22112,45 +21868,45 @@
     </row>
     <row r="17" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F27" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>80</v>
@@ -22158,22 +21914,22 @@
     </row>
     <row r="29" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="3:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E32" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="3:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22210,7 +21966,7 @@
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22220,27 +21976,27 @@
     </row>
     <row r="9" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22250,110 +22006,110 @@
     </row>
     <row r="17" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="3:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O39" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="2:23" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22370,9 +22126,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EFD11C-337D-4996-8E8C-35E79D64D613}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -22388,7 +22144,7 @@
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22398,17 +22154,17 @@
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22418,20 +22174,20 @@
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22465,44 +22221,44 @@
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31"/>
       <c r="C31" s="14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E36" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22536,60 +22292,53 @@
     </row>
     <row r="43" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F44" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H46" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F47" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="4:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G48" t="s">
+        <v>202</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D50" t="s">
         <v>192</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D58" t="s">
-        <v>187</v>
-      </c>
-      <c r="X58" s="3"/>
-    </row>
-    <row r="60" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="6" t="s">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="52" spans="2:24" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="6" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>